--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623201A-C3A9-419E-A542-D72A9317275D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEEA760-78F6-4577-B0E3-A368ED3ECEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25703" yWindow="1522" windowWidth="24518" windowHeight="11423" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Forename</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Edward</t>
   </si>
   <si>
-    <t>Edward Gomez Quiroga</t>
-  </si>
-  <si>
     <t>FlightInTime</t>
   </si>
   <si>
@@ -303,6 +300,12 @@
   </si>
   <si>
     <t>DietaryInfo</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Gomez Quiroga</t>
   </si>
 </sst>
 </file>
@@ -377,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H47" totalsRowShown="0">
-  <autoFilter ref="A1:H47" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H48" totalsRowShown="0">
+  <autoFilter ref="A1:H48" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{494946AB-858E-454F-A4FF-3F5835CDCAB3}" name="Forename"/>
     <tableColumn id="2" xr3:uid="{2E848B5A-F926-4B46-8857-E41B0A5B9FA7}" name="Surname"/>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -736,19 +739,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -802,10 +805,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.9027777777777776E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>45600</v>
+        <v>45599</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.25694444444444442</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -813,13 +822,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1">
         <v>45596</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.83680555555555558</v>
       </c>
       <c r="F5" s="1">
         <v>45600</v>
@@ -830,10 +839,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>45596</v>
@@ -847,16 +856,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>45596</v>
       </c>
+      <c r="E7" s="2">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="F7" s="1">
         <v>45600</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -864,10 +879,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>45596</v>
@@ -881,10 +896,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>45596</v>
@@ -898,10 +913,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>45596</v>
@@ -915,7 +930,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>45596</v>
@@ -929,22 +947,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>45596</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.4201388888888889</v>
-      </c>
       <c r="F12" s="1">
         <v>45600</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.42708333333333331</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -952,16 +961,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>45596</v>
       </c>
+      <c r="E13" s="2">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="F13" s="1">
         <v>45600</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.42708333333333331</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -969,10 +984,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>45596</v>
@@ -989,13 +1004,19 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>45596</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="F15" s="1">
         <v>45600</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1003,10 +1024,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>45596</v>
@@ -1020,7 +1041,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="1">
         <v>45596</v>
@@ -1036,9 +1060,6 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" s="1">
         <v>45596</v>
       </c>
@@ -1051,10 +1072,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>45596</v>
@@ -1068,10 +1089,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1">
         <v>45596</v>
@@ -1085,10 +1106,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
         <v>45596</v>
@@ -1102,10 +1123,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>45596</v>
@@ -1119,22 +1140,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.56597222222222221</v>
+        <v>45596</v>
       </c>
       <c r="F23" s="1">
         <v>45600</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.375</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1142,22 +1157,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E24" s="2">
-        <v>0.64236111111111116</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="F24" s="1">
         <v>45600</v>
       </c>
       <c r="G24" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.375</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1165,22 +1180,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1">
         <v>45596</v>
       </c>
       <c r="E25" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="F25" s="1">
         <v>45600</v>
       </c>
       <c r="G25" s="2">
-        <v>0.60763888888888884</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1188,16 +1203,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1">
         <v>45596</v>
       </c>
+      <c r="E26" s="2">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F26" s="1">
         <v>45600</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.60763888888888884</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1205,10 +1226,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1">
         <v>45596</v>
@@ -1222,10 +1243,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
         <v>45596</v>
@@ -1239,13 +1260,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
       </c>
       <c r="D29" s="1">
-        <v>45596</v>
+        <v>45598</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.50347222222222221</v>
       </c>
       <c r="F29" s="1">
         <v>45600</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.49652777777777779</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1253,22 +1283,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1">
         <v>45596</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.64236111111111116</v>
-      </c>
       <c r="F30" s="1">
         <v>45600</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.67361111111111116</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1276,53 +1297,62 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1">
         <v>45596</v>
       </c>
+      <c r="E31" s="2">
+        <v>0.64236111111111116</v>
+      </c>
       <c r="F31" s="1">
         <v>45600</v>
       </c>
+      <c r="G31" s="2">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1">
         <v>45596</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.61111111111111116</v>
-      </c>
       <c r="F32" s="1">
         <v>45600</v>
       </c>
-      <c r="G32" s="2">
-        <v>0.86111111111111116</v>
-      </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
       </c>
       <c r="D33" s="1">
         <v>45596</v>
       </c>
+      <c r="E33" s="2">
+        <v>0.61111111111111116</v>
+      </c>
       <c r="F33" s="1">
         <v>45600</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1330,7 +1360,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1">
         <v>45596</v>
@@ -1344,19 +1374,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1">
         <v>45596</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.4201388888888889</v>
-      </c>
       <c r="F35" s="1">
         <v>45600</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.42708333333333331</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1364,13 +1388,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1">
         <v>45596</v>
       </c>
+      <c r="E36" s="2">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="F36" s="1">
         <v>45600</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.42708333333333331</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1378,7 +1408,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1">
         <v>45596</v>
@@ -1392,10 +1422,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1">
         <v>45596</v>
@@ -1409,16 +1436,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1">
-        <v>45597</v>
+        <v>45596</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.64236111111111116</v>
       </c>
       <c r="F39" s="1">
         <v>45600</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1426,22 +1459,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1">
         <v>45597</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.56597222222222221</v>
-      </c>
       <c r="F40" s="1">
         <v>45600</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.375</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1449,16 +1476,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.56597222222222221</v>
       </c>
       <c r="F41" s="1">
         <v>45600</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.375</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1466,7 +1499,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="1">
         <v>45596</v>
@@ -1480,10 +1516,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1">
         <v>45596</v>
@@ -1497,10 +1530,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1">
         <v>45596</v>
@@ -1514,10 +1547,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1">
         <v>45596</v>
@@ -1531,10 +1564,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1">
         <v>45596</v>
@@ -1548,18 +1581,41 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="1">
-        <v>45596</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45600</v>
-      </c>
-      <c r="H47">
+      <c r="D48" s="1">
+        <v>45596</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45600</v>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
     </row>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEEA760-78F6-4577-B0E3-A368ED3ECEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C05CD-D553-47FF-AFAA-B66447D1BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Forename</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Gomez Quiroga</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
   </si>
 </sst>
 </file>
@@ -715,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -989,11 +995,20 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
       <c r="D14" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.50347222222222221</v>
       </c>
       <c r="F14" s="1">
         <v>45600</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.49652777777777779</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1061,10 +1076,16 @@
         <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F18" s="1">
         <v>45600</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1248,6 +1269,9 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
       <c r="D28" s="1">
         <v>45596</v>
       </c>
@@ -1377,10 +1401,16 @@
         <v>61</v>
       </c>
       <c r="D35" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F35" s="1">
         <v>45600</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="H35">
         <v>1</v>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C05CD-D553-47FF-AFAA-B66447D1BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CE148D-D0E7-454C-B247-4F4D7C57D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D35" sqref="D35:G35"/>
     </sheetView>
   </sheetViews>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CE148D-D0E7-454C-B247-4F4D7C57D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F3D6A-1246-497C-B6D1-618309B85214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Forename</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Peinado</t>
   </si>
   <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Maiorano</t>
-  </si>
-  <si>
     <t>Ayesha</t>
   </si>
   <si>
@@ -93,12 +87,6 @@
   </si>
   <si>
     <t>Hamal</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Wong</t>
   </si>
   <si>
     <t>Camy</t>
@@ -386,8 +374,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H48" totalsRowShown="0">
-  <autoFilter ref="A1:H48" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H46" totalsRowShown="0">
+  <autoFilter ref="A1:H46" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="D2:D46"/>
+    <sortCondition ref="E2:E46"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{494946AB-858E-454F-A4FF-3F5835CDCAB3}" name="Forename"/>
     <tableColumn id="2" xr3:uid="{2E848B5A-F926-4B46-8857-E41B0A5B9FA7}" name="Surname"/>
@@ -719,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -745,19 +737,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -765,22 +757,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <v>45596</v>
       </c>
       <c r="E2" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.40625</v>
       </c>
       <c r="F2" s="1">
         <v>45600</v>
       </c>
       <c r="G2" s="2">
-        <v>0.60763888888888884</v>
+        <v>0.44097222222222221</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -788,16 +780,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>45596</v>
       </c>
+      <c r="E3" s="2">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F3" s="1">
         <v>45600</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.60763888888888884</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -805,22 +803,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E4" s="2">
-        <v>5.9027777777777776E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F4" s="1">
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="G4" s="2">
-        <v>0.25694444444444442</v>
+        <v>0.60763888888888884</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -828,16 +826,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>45596</v>
       </c>
       <c r="E5" s="2">
-        <v>0.83680555555555558</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F5" s="1">
         <v>45600</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.42708333333333331</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -845,16 +849,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>45596</v>
       </c>
+      <c r="E6" s="2">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="F6" s="1">
         <v>45600</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.42708333333333331</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -862,10 +869,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>45596</v>
@@ -885,16 +892,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>45596</v>
       </c>
+      <c r="E8" s="2">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="F8" s="1">
         <v>45600</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -902,16 +915,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
         <v>45596</v>
       </c>
+      <c r="E9" s="2">
+        <v>0.61111111111111116</v>
+      </c>
       <c r="F9" s="1">
         <v>45600</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -919,16 +938,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
         <v>45596</v>
       </c>
+      <c r="E10" s="2">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="F10" s="1">
         <v>45600</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.51041666666666663</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -936,16 +961,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1">
         <v>45596</v>
       </c>
+      <c r="E11" s="2">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="F11" s="1">
         <v>45600</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.51041666666666663</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -953,13 +984,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>45596</v>
       </c>
+      <c r="E12" s="2">
+        <v>0.64236111111111116</v>
+      </c>
       <c r="F12" s="1">
         <v>45600</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.67361111111111116</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -967,22 +1007,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>45596</v>
       </c>
       <c r="E13" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="F13" s="1">
         <v>45600</v>
       </c>
       <c r="G13" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -990,25 +1030,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E14" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="F14" s="1">
         <v>45600</v>
       </c>
       <c r="G14" s="2">
-        <v>0.49652777777777779</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1016,22 +1053,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1">
         <v>45596</v>
       </c>
       <c r="E15" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.83680555555555558</v>
       </c>
       <c r="F15" s="1">
         <v>45600</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.86111111111111116</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1039,10 +1070,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
         <v>45596</v>
@@ -1056,16 +1087,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>45596</v>
       </c>
       <c r="F17" s="1">
-        <v>45600</v>
+        <v>45599</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.94791666666666663</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1073,19 +1107,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.4375</v>
+        <v>45596</v>
       </c>
       <c r="F18" s="1">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="G18" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1093,13 +1127,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="F19" s="1">
         <v>45600</v>
@@ -1110,10 +1144,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>45596</v>
@@ -1127,10 +1158,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>45596</v>
@@ -1144,16 +1175,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F22" s="1">
-        <v>45600</v>
+        <v>45599</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.71527777777777779</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1161,10 +1198,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>45596</v>
@@ -1178,22 +1215,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E24" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.83680555555555558</v>
       </c>
       <c r="F24" s="1">
         <v>45600</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.375</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1201,22 +1235,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
         <v>45596</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.64236111111111116</v>
-      </c>
       <c r="F25" s="1">
         <v>45600</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.67361111111111116</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1224,22 +1252,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
         <v>45596</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="F26" s="1">
         <v>45600</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.60763888888888884</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1247,10 +1269,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
         <v>45596</v>
@@ -1264,13 +1286,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1">
         <v>45596</v>
@@ -1284,22 +1306,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1">
-        <v>45598</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.50347222222222221</v>
+        <v>45596</v>
       </c>
       <c r="F29" s="1">
         <v>45600</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.49652777777777779</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1307,6 +1320,9 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="1">
@@ -1316,27 +1332,18 @@
         <v>45600</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
         <v>45596</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.64236111111111116</v>
-      </c>
       <c r="F31" s="1">
         <v>45600</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.67361111111111116</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1344,10 +1351,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1">
         <v>45596</v>
@@ -1356,27 +1360,24 @@
         <v>45600</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1">
         <v>45596</v>
       </c>
       <c r="E33" s="2">
-        <v>0.61111111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F33" s="1">
         <v>45600</v>
       </c>
       <c r="G33" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1384,7 +1385,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
       </c>
       <c r="D34" s="1">
         <v>45596</v>
@@ -1398,19 +1402,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.4375</v>
+        <v>45596</v>
       </c>
       <c r="F35" s="1">
         <v>45600</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.54166666666666663</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1418,19 +1416,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="1">
         <v>45596</v>
       </c>
       <c r="E36" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F36" s="1">
         <v>45600</v>
       </c>
       <c r="G36" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.49652777777777779</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1438,7 +1439,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
       </c>
       <c r="D37" s="1">
         <v>45596</v>
@@ -1452,10 +1456,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="1">
         <v>45596</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.40625</v>
       </c>
       <c r="F38" s="1">
         <v>45600</v>
@@ -1466,22 +1476,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E39" s="2">
-        <v>0.64236111111111116</v>
+        <v>5.9027777777777776E-2</v>
       </c>
       <c r="F39" s="1">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="G39" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1489,16 +1499,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1">
         <v>45597</v>
       </c>
+      <c r="E40" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="F40" s="1">
         <v>45600</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1506,22 +1519,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1">
         <v>45597</v>
       </c>
       <c r="E41" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.4375</v>
       </c>
       <c r="F41" s="1">
         <v>45600</v>
       </c>
       <c r="G41" s="2">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1529,16 +1539,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
       </c>
       <c r="D42" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.50347222222222221</v>
       </c>
       <c r="F42" s="1">
         <v>45600</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.49652777777777779</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1546,13 +1565,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
       </c>
       <c r="D43" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.56597222222222221</v>
       </c>
       <c r="F43" s="1">
         <v>45600</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.375</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1560,16 +1588,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.56597222222222221</v>
       </c>
       <c r="F44" s="1">
         <v>45600</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.375</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1577,13 +1611,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="F45" s="1">
         <v>45600</v>
@@ -1594,58 +1628,24 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1">
-        <v>45596</v>
+        <v>45598</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.50347222222222221</v>
       </c>
       <c r="F46" s="1">
         <v>45600</v>
       </c>
+      <c r="G46" s="2">
+        <v>0.49652777777777779</v>
+      </c>
       <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="1">
-        <v>45596</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.40625</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45600</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.44097222222222221</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="1">
-        <v>45596</v>
-      </c>
-      <c r="F48" s="1">
-        <v>45600</v>
-      </c>
-      <c r="H48">
         <v>1</v>
       </c>
     </row>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F3D6A-1246-497C-B6D1-618309B85214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740ECAE-2DAC-43A4-B607-19F00DE466A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Forename</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Wong</t>
   </si>
 </sst>
 </file>
@@ -374,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H46" totalsRowShown="0">
-  <autoFilter ref="A1:H46" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H48" totalsRowShown="0">
+  <autoFilter ref="A1:H48" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
     <sortCondition ref="D2:D46"/>
     <sortCondition ref="E2:E46"/>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1649,6 +1655,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45596</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45600</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740ECAE-2DAC-43A4-B607-19F00DE466A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57192968-C6A2-460D-9774-2D26EF07743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Forename</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Wong</t>
+  </si>
+  <si>
+    <t>Mkrtchyan</t>
+  </si>
+  <si>
+    <t>Natalie</t>
   </si>
 </sst>
 </file>
@@ -380,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H48" totalsRowShown="0">
-  <autoFilter ref="A1:H48" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0">
+  <autoFilter ref="A1:H49" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
     <sortCondition ref="D2:D46"/>
     <sortCondition ref="E2:E46"/>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
@@ -1672,6 +1678,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45596</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45600</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57192968-C6A2-460D-9774-2D26EF07743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DA81B-615D-48ED-9B3B-9889510865FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Forename</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Natalie</t>
+  </si>
+  <si>
+    <t>Zuna Ortega</t>
   </si>
 </sst>
 </file>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1067,6 +1070,9 @@
       <c r="A15" t="s">
         <v>84</v>
       </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
       <c r="D15" s="1">
         <v>45596</v>
       </c>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DA81B-615D-48ED-9B3B-9889510865FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F369B8-8881-4309-917C-82DB6CEE1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -391,9 +391,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0">
   <autoFilter ref="A1:H49" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
-    <sortCondition ref="D2:D46"/>
-    <sortCondition ref="E2:E46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+    <sortCondition ref="A2:A48"/>
+    <sortCondition ref="B2:B48"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{494946AB-858E-454F-A4FF-3F5835CDCAB3}" name="Forename"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -772,22 +772,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>45596</v>
       </c>
       <c r="E2" s="2">
-        <v>0.40625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F2" s="1">
         <v>45600</v>
       </c>
       <c r="G2" s="2">
-        <v>0.44097222222222221</v>
+        <v>0.60763888888888884</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -795,22 +795,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>45596</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="F3" s="1">
         <v>45600</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.60763888888888884</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -818,22 +812,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E4" s="2">
-        <v>0.41666666666666669</v>
+        <v>5.9027777777777776E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="G4" s="2">
-        <v>0.60763888888888884</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -841,22 +835,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1">
         <v>45596</v>
       </c>
       <c r="E5" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.83680555555555558</v>
       </c>
       <c r="F5" s="1">
         <v>45600</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.42708333333333331</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -864,19 +855,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>45596</v>
       </c>
       <c r="E6" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F6" s="1">
         <v>45600</v>
       </c>
       <c r="G6" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -884,22 +878,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>45596</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.50347222222222221</v>
-      </c>
       <c r="F7" s="1">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="G7" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -907,22 +898,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>45596</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.50347222222222221</v>
-      </c>
       <c r="F8" s="1">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="G8" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -930,22 +918,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
         <v>45596</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.61111111111111116</v>
-      </c>
       <c r="F9" s="1">
         <v>45600</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.86111111111111116</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -953,22 +935,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>45596</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.63541666666666663</v>
+        <v>45597</v>
       </c>
       <c r="F10" s="1">
         <v>45600</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.51041666666666663</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -976,22 +952,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>45596</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.63541666666666663</v>
-      </c>
       <c r="F11" s="1">
         <v>45600</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.51041666666666663</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -999,22 +966,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>45596</v>
       </c>
       <c r="E12" s="2">
-        <v>0.64236111111111116</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F12" s="1">
         <v>45600</v>
       </c>
       <c r="G12" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1022,22 +989,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="2">
-        <v>0.64236111111111116</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F13" s="1">
         <v>45600</v>
       </c>
       <c r="G13" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.49652777777777779</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1045,16 +1015,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>45596</v>
       </c>
       <c r="E14" s="2">
-        <v>0.64236111111111116</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F14" s="1">
         <v>45600</v>
@@ -1068,16 +1038,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>45596</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.83680555555555558</v>
       </c>
       <c r="F15" s="1">
         <v>45600</v>
@@ -1088,16 +1055,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F16" s="1">
-        <v>45600</v>
+        <v>45599</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.71527777777777779</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1105,19 +1078,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>45596</v>
       </c>
       <c r="F17" s="1">
-        <v>45599</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.94791666666666663</v>
+        <v>45600</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1125,19 +1095,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F18" s="1">
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="G18" s="2">
-        <v>0.94791666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1145,16 +1115,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>45597</v>
+        <v>45596</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.63541666666666663</v>
       </c>
       <c r="F19" s="1">
         <v>45600</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.51041666666666663</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1162,10 +1138,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>45596</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.83680555555555558</v>
       </c>
       <c r="F20" s="1">
         <v>45600</v>
@@ -1176,10 +1158,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
         <v>45596</v>
@@ -1193,22 +1175,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.4375</v>
+        <v>45596</v>
       </c>
       <c r="F22" s="1">
-        <v>45599</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.71527777777777779</v>
+        <v>45600</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1216,16 +1192,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.56597222222222221</v>
       </c>
       <c r="F23" s="1">
         <v>45600</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.375</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1233,19 +1215,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>45596</v>
       </c>
       <c r="E24" s="2">
-        <v>0.83680555555555558</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="F24" s="1">
         <v>45600</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.67361111111111116</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1253,16 +1238,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>45596</v>
       </c>
+      <c r="E25" s="2">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F25" s="1">
         <v>45600</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.60763888888888884</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1270,16 +1261,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1">
         <v>45596</v>
       </c>
+      <c r="E26" s="2">
+        <v>0.4548611111111111</v>
+      </c>
       <c r="F26" s="1">
         <v>45600</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.97569444444444442</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1287,10 +1284,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
       </c>
       <c r="D27" s="1">
         <v>45596</v>
@@ -1304,19 +1304,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1">
-        <v>45596</v>
+        <v>45598</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.50347222222222221</v>
       </c>
       <c r="F28" s="1">
         <v>45600</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.49652777777777779</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1338,24 +1341,33 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1">
         <v>45596</v>
       </c>
+      <c r="E30" s="2">
+        <v>0.64236111111111116</v>
+      </c>
       <c r="F30" s="1">
         <v>45600</v>
       </c>
+      <c r="G30" s="2">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="D31" s="1">
         <v>45596</v>
@@ -1364,18 +1376,27 @@
         <v>45600</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
       </c>
       <c r="D32" s="1">
         <v>45596</v>
       </c>
+      <c r="E32" s="2">
+        <v>0.61111111111111116</v>
+      </c>
       <c r="F32" s="1">
         <v>45600</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.86111111111111116</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1383,19 +1404,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1">
         <v>45596</v>
       </c>
-      <c r="E33" s="2">
-        <v>0.4548611111111111</v>
-      </c>
       <c r="F33" s="1">
         <v>45600</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.89583333333333337</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1403,10 +1418,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1">
         <v>45596</v>
@@ -1420,13 +1435,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F35" s="1">
         <v>45600</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1434,22 +1455,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1">
         <v>45596</v>
       </c>
       <c r="E36" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F36" s="1">
         <v>45600</v>
       </c>
       <c r="G36" s="2">
-        <v>0.49652777777777779</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1457,10 +1475,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1">
         <v>45596</v>
@@ -1474,19 +1489,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1">
         <v>45596</v>
       </c>
       <c r="E38" s="2">
-        <v>0.40625</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F38" s="1">
         <v>45600</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.89583333333333337</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1494,22 +1509,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E39" s="2">
-        <v>5.9027777777777776E-2</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="F39" s="1">
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="G39" s="2">
-        <v>0.25694444444444442</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1517,19 +1532,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
       </c>
       <c r="D40" s="1">
         <v>45597</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.4375</v>
-      </c>
       <c r="F40" s="1">
         <v>45600</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.54166666666666663</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1537,19 +1549,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
       </c>
       <c r="D41" s="1">
         <v>45597</v>
       </c>
       <c r="E41" s="2">
-        <v>0.4375</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="F41" s="1">
         <v>45600</v>
       </c>
       <c r="G41" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1557,25 +1572,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.50347222222222221</v>
+        <v>45596</v>
       </c>
       <c r="F42" s="1">
         <v>45600</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.49652777777777779</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1583,22 +1589,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.56597222222222221</v>
+        <v>45596</v>
       </c>
       <c r="F43" s="1">
         <v>45600</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.375</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1606,22 +1603,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E44" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F44" s="1">
         <v>45600</v>
       </c>
       <c r="G44" s="2">
-        <v>0.375</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1629,16 +1626,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1">
-        <v>45597</v>
+        <v>45596</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.39583333333333331</v>
       </c>
       <c r="F45" s="1">
         <v>45600</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.49652777777777779</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1646,22 +1649,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="E46" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F46" s="1">
         <v>45600</v>
       </c>
       <c r="G46" s="2">
-        <v>0.49652777777777779</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1669,16 +1672,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1">
         <v>45596</v>
       </c>
+      <c r="E47" s="2">
+        <v>0.40625</v>
+      </c>
       <c r="F47" s="1">
         <v>45600</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.44097222222222221</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1686,13 +1695,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1">
         <v>45596</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.40625</v>
       </c>
       <c r="F48" s="1">
         <v>45600</v>

--- a/sql/staging.xlsx
+++ b/sql/staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F369B8-8881-4309-917C-82DB6CEE1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812DF69-300C-42AF-B6AF-23607E7A4649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
@@ -200,12 +200,6 @@
     <t>Gill</t>
   </si>
   <si>
-    <t>Marky</t>
-  </si>
-  <si>
-    <t>Marc</t>
-  </si>
-  <si>
     <t>Mihaela</t>
   </si>
   <si>
@@ -315,6 +309,12 @@
   </si>
   <si>
     <t>Zuna Ortega</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Daquilema</t>
   </si>
 </sst>
 </file>
@@ -391,9 +391,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0">
   <autoFilter ref="A1:H49" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-    <sortCondition ref="A2:A48"/>
-    <sortCondition ref="B2:B48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+    <sortCondition ref="A2:A47"/>
+    <sortCondition ref="B2:B47"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{494946AB-858E-454F-A4FF-3F5835CDCAB3}" name="Forename"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -752,19 +752,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -835,10 +835,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
         <v>45596</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1">
         <v>45596</v>
@@ -943,8 +943,14 @@
       <c r="D10" s="1">
         <v>45597</v>
       </c>
+      <c r="E10" s="2">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="F10" s="1">
         <v>45600</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5625</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -995,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1">
         <v>45597</v>
@@ -1115,10 +1121,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1">
         <v>45596</v>
@@ -1290,7 +1296,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
         <v>45596</v>
@@ -1383,20 +1389,11 @@
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
       <c r="D32" s="1">
         <v>45596</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.61111111111111116</v>
-      </c>
       <c r="F32" s="1">
         <v>45600</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.86111111111111116</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1404,7 +1401,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="1">
         <v>45596</v>
@@ -1418,16 +1418,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1">
-        <v>45596</v>
+        <v>45597</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.4375</v>
       </c>
       <c r="F34" s="1">
         <v>45600</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1435,19 +1438,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E35" s="2">
-        <v>0.4375</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F35" s="1">
         <v>45600</v>
       </c>
       <c r="G35" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1455,19 +1458,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1">
         <v>45596</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.4201388888888889</v>
-      </c>
       <c r="F36" s="1">
         <v>45600</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.42708333333333331</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1475,13 +1472,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1">
         <v>45596</v>
       </c>
+      <c r="E37" s="2">
+        <v>0.4548611111111111</v>
+      </c>
       <c r="F37" s="1">
         <v>45600</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.89583333333333337</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1489,19 +1492,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="1">
         <v>45596</v>
       </c>
       <c r="E38" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="F38" s="1">
         <v>45600</v>
       </c>
       <c r="G38" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1515,16 +1521,10 @@
         <v>75</v>
       </c>
       <c r="D39" s="1">
-        <v>45596</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.64236111111111116</v>
+        <v>45597</v>
       </c>
       <c r="F39" s="1">
         <v>45600</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.86111111111111116</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1532,16 +1532,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1">
         <v>45597</v>
       </c>
+      <c r="E40" s="2">
+        <v>0.56597222222222221</v>
+      </c>
       <c r="F40" s="1">
         <v>45600</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.375</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1555,16 +1561,10 @@
         <v>62</v>
       </c>
       <c r="D41" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.56597222222222221</v>
+        <v>45596</v>
       </c>
       <c r="F41" s="1">
         <v>45600</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.375</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1574,9 +1574,6 @@
       <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
       <c r="D42" s="1">
         <v>45596</v>
       </c>
@@ -1589,13 +1586,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
       </c>
       <c r="D43" s="1">
         <v>45596</v>
       </c>
+      <c r="E43" s="2">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="F43" s="1">
         <v>45600</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.51041666666666663</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1603,22 +1609,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1">
         <v>45596</v>
       </c>
       <c r="E44" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F44" s="1">
         <v>45600</v>
       </c>
       <c r="G44" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.49652777777777779</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1632,16 +1638,16 @@
         <v>67</v>
       </c>
       <c r="D45" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E45" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F45" s="1">
         <v>45600</v>
       </c>
       <c r="G45" s="2">
-        <v>0.49652777777777779</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1655,16 +1661,16 @@
         <v>69</v>
       </c>
       <c r="D46" s="1">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E46" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.40625</v>
       </c>
       <c r="F46" s="1">
         <v>45600</v>
       </c>
       <c r="G46" s="2">
-        <v>0.64236111111111116</v>
+        <v>0.44097222222222221</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1686,25 +1692,19 @@
       <c r="F47" s="1">
         <v>45600</v>
       </c>
-      <c r="G47" s="2">
-        <v>0.44097222222222221</v>
-      </c>
       <c r="H47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1">
         <v>45596</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.40625</v>
       </c>
       <c r="F48" s="1">
         <v>45600</v>
@@ -1720,4 +1720,10 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{dd2e4901-b5ad-42ae-9e9d-f456e52148af}" enabled="1" method="Privileged" siteId="{3b07dc1f-22e7-4be1-ac66-a88bf3550222}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>